--- a/ret.xlsx
+++ b/ret.xlsx
@@ -576,7 +576,7 @@
     </row>
     <row r="3">
       <c r="B3">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="5">

--- a/ret.xlsx
+++ b/ret.xlsx
@@ -397,7 +397,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AC5"/>
+  <dimension ref="A1:AD34"/>
   <sheetViews>
     <sheetView workbookViewId="0" rightToLeft="0"/>
   </sheetViews>
@@ -575,19 +575,2953 @@
       </c>
     </row>
     <row r="3">
-      <c r="B3">
+      <c r="A3">
         <v>3</v>
+      </c>
+      <c r="B3" t="str">
+        <v>重庆市</v>
+      </c>
+      <c r="C3" t="str">
+        <v>重庆市</v>
+      </c>
+      <c r="D3" t="str">
+        <v>B</v>
+      </c>
+      <c r="E3" t="str">
+        <v>B</v>
+      </c>
+      <c r="F3" t="str">
+        <v>B</v>
+      </c>
+      <c r="G3" t="str">
+        <v>C</v>
+      </c>
+      <c r="H3" t="str">
+        <v>C</v>
+      </c>
+      <c r="I3" t="str">
+        <v>D</v>
+      </c>
+      <c r="J3" t="str">
+        <v>A</v>
+      </c>
+      <c r="K3" t="str">
+        <v>D</v>
+      </c>
+      <c r="L3" t="str">
+        <v>D</v>
+      </c>
+      <c r="M3" t="str">
+        <v>B</v>
+      </c>
+      <c r="N3" t="str">
+        <v>A</v>
+      </c>
+      <c r="O3" t="str">
+        <v>B</v>
+      </c>
+      <c r="P3" t="str">
+        <v>C</v>
+      </c>
+      <c r="Q3" t="str">
+        <v>C</v>
+      </c>
+      <c r="R3" t="str">
+        <v>A</v>
+      </c>
+      <c r="S3" t="str">
+        <v>B</v>
+      </c>
+      <c r="T3" t="str">
+        <v>A</v>
+      </c>
+      <c r="U3" t="str">
+        <v>C</v>
+      </c>
+      <c r="V3" t="str">
+        <v>B</v>
+      </c>
+      <c r="W3" t="str">
+        <v/>
+      </c>
+      <c r="X3" t="str">
+        <v>A</v>
+      </c>
+      <c r="Y3" t="str">
+        <v>A</v>
+      </c>
+      <c r="Z3">
+        <v>5</v>
+      </c>
+      <c r="AA3">
+        <v>1</v>
+      </c>
+      <c r="AB3" t="str">
+        <v>ABDEFH</v>
+      </c>
+      <c r="AC3" t="str">
+        <v/>
+      </c>
+      <c r="AD3" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4">
+        <v>4</v>
+      </c>
+      <c r="B4" t="str">
+        <v>重庆市</v>
+      </c>
+      <c r="C4" t="str">
+        <v>重庆市</v>
+      </c>
+      <c r="D4" t="str">
+        <v>B</v>
+      </c>
+      <c r="E4" t="str">
+        <v>A</v>
+      </c>
+      <c r="F4" t="str">
+        <v>D</v>
+      </c>
+      <c r="G4" t="str">
+        <v>C</v>
+      </c>
+      <c r="H4" t="str">
+        <v>C</v>
+      </c>
+      <c r="I4" t="str">
+        <v>A</v>
+      </c>
+      <c r="J4" t="str">
+        <v>C</v>
+      </c>
+      <c r="K4" t="str">
+        <v>D</v>
+      </c>
+      <c r="L4" t="str">
+        <v>A</v>
+      </c>
+      <c r="M4" t="str">
+        <v>A</v>
+      </c>
+      <c r="N4" t="str">
+        <v>B</v>
+      </c>
+      <c r="O4" t="str">
+        <v>C</v>
+      </c>
+      <c r="P4" t="str">
+        <v>A</v>
+      </c>
+      <c r="Q4" t="str">
+        <v>B</v>
+      </c>
+      <c r="R4" t="str">
+        <v>A</v>
+      </c>
+      <c r="S4" t="str">
+        <v>C</v>
+      </c>
+      <c r="T4" t="str">
+        <v>A</v>
+      </c>
+      <c r="U4" t="str">
+        <v>C</v>
+      </c>
+      <c r="V4" t="str">
+        <v>A</v>
+      </c>
+      <c r="W4" t="str">
+        <v/>
+      </c>
+      <c r="X4" t="str">
+        <v>C</v>
+      </c>
+      <c r="Y4" t="str">
+        <v>C</v>
+      </c>
+      <c r="Z4">
+        <v>7</v>
+      </c>
+      <c r="AA4">
+        <v>6</v>
+      </c>
+      <c r="AB4" t="str">
+        <v>ABCDEGH</v>
+      </c>
+      <c r="AC4" t="str">
+        <v/>
+      </c>
+      <c r="AD4" t="str">
+        <v/>
       </c>
     </row>
     <row r="5">
+      <c r="A5">
+        <v>5</v>
+      </c>
+      <c r="B5" t="str">
+        <v>重庆市</v>
+      </c>
+      <c r="C5" t="str">
+        <v>重庆市</v>
+      </c>
+      <c r="D5" t="str">
+        <v>B</v>
+      </c>
       <c r="E5" t="str">
-        <v>abc</v>
+        <v>A</v>
+      </c>
+      <c r="F5" t="str">
+        <v>D</v>
+      </c>
+      <c r="G5" t="str">
+        <v>C</v>
+      </c>
+      <c r="H5" t="str">
+        <v>B</v>
+      </c>
+      <c r="I5" t="str">
+        <v>B</v>
+      </c>
+      <c r="J5" t="str">
+        <v>B</v>
+      </c>
+      <c r="K5" t="str">
+        <v>B</v>
+      </c>
+      <c r="L5" t="str">
+        <v>C</v>
+      </c>
+      <c r="M5" t="str">
+        <v>C</v>
+      </c>
+      <c r="N5" t="str">
+        <v>A</v>
+      </c>
+      <c r="O5" t="str">
+        <v>C</v>
+      </c>
+      <c r="P5" t="str">
+        <v>A</v>
+      </c>
+      <c r="Q5" t="str">
+        <v>A</v>
+      </c>
+      <c r="R5" t="str">
+        <v>A</v>
+      </c>
+      <c r="S5" t="str">
+        <v>D</v>
+      </c>
+      <c r="T5" t="str">
+        <v>B</v>
+      </c>
+      <c r="U5" t="str">
+        <v/>
+      </c>
+      <c r="V5" t="str">
+        <v/>
+      </c>
+      <c r="W5" t="str">
+        <v/>
+      </c>
+      <c r="X5" t="str">
+        <v>A</v>
+      </c>
+      <c r="Y5" t="str">
+        <v>A</v>
+      </c>
+      <c r="Z5">
+        <v>7</v>
+      </c>
+      <c r="AA5">
+        <v>1</v>
+      </c>
+      <c r="AB5" t="str">
+        <v>ACEFG</v>
+      </c>
+      <c r="AC5" t="str">
+        <v/>
+      </c>
+      <c r="AD5" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6">
+        <v>6</v>
+      </c>
+      <c r="B6" t="str">
+        <v>重庆市</v>
+      </c>
+      <c r="C6" t="str">
+        <v>重庆市</v>
+      </c>
+      <c r="D6" t="str">
+        <v>B</v>
+      </c>
+      <c r="E6" t="str">
+        <v>A</v>
+      </c>
+      <c r="F6" t="str">
+        <v>B</v>
+      </c>
+      <c r="G6" t="str">
+        <v>C</v>
+      </c>
+      <c r="H6" t="str">
+        <v>C</v>
+      </c>
+      <c r="I6" t="str">
+        <v>A</v>
+      </c>
+      <c r="J6" t="str">
+        <v>C</v>
+      </c>
+      <c r="K6" t="str">
+        <v>C</v>
+      </c>
+      <c r="L6" t="str">
+        <v>B</v>
+      </c>
+      <c r="M6" t="str">
+        <v>A</v>
+      </c>
+      <c r="N6" t="str">
+        <v>A</v>
+      </c>
+      <c r="O6" t="str">
+        <v>B</v>
+      </c>
+      <c r="P6" t="str">
+        <v>A</v>
+      </c>
+      <c r="Q6" t="str">
+        <v>C</v>
+      </c>
+      <c r="R6" t="str">
+        <v>B</v>
+      </c>
+      <c r="S6" t="str">
+        <v>B</v>
+      </c>
+      <c r="T6" t="str">
+        <v>A</v>
+      </c>
+      <c r="U6" t="str">
+        <v>D</v>
+      </c>
+      <c r="V6" t="str">
+        <v>A</v>
+      </c>
+      <c r="W6" t="str">
+        <v/>
+      </c>
+      <c r="X6" t="str">
+        <v>B</v>
+      </c>
+      <c r="Y6" t="str">
+        <v>A</v>
+      </c>
+      <c r="Z6">
+        <v>7</v>
+      </c>
+      <c r="AA6">
+        <v>1</v>
+      </c>
+      <c r="AB6" t="str">
+        <v>CG</v>
+      </c>
+      <c r="AC6" t="str">
+        <v/>
+      </c>
+      <c r="AD6" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7">
+        <v>7</v>
+      </c>
+      <c r="B7" t="str">
+        <v>重庆市</v>
+      </c>
+      <c r="C7" t="str">
+        <v>重庆市</v>
+      </c>
+      <c r="D7" t="str">
+        <v>B</v>
+      </c>
+      <c r="E7" t="str">
+        <v>B</v>
+      </c>
+      <c r="F7" t="str">
+        <v>D</v>
+      </c>
+      <c r="G7" t="str">
+        <v>A</v>
+      </c>
+      <c r="H7" t="str">
+        <v>A</v>
+      </c>
+      <c r="I7" t="str">
+        <v>A</v>
+      </c>
+      <c r="J7" t="str">
+        <v>A</v>
+      </c>
+      <c r="K7" t="str">
+        <v>C</v>
+      </c>
+      <c r="L7" t="str">
+        <v>A</v>
+      </c>
+      <c r="M7" t="str">
+        <v>A</v>
+      </c>
+      <c r="N7" t="str">
+        <v>A</v>
+      </c>
+      <c r="O7" t="str">
+        <v>C</v>
+      </c>
+      <c r="P7" t="str">
+        <v>A</v>
+      </c>
+      <c r="Q7" t="str">
+        <v>C</v>
+      </c>
+      <c r="R7" t="str">
+        <v>B</v>
+      </c>
+      <c r="S7" t="str">
+        <v>C</v>
+      </c>
+      <c r="T7" t="str">
+        <v>B</v>
+      </c>
+      <c r="U7" t="str">
+        <v/>
+      </c>
+      <c r="V7" t="str">
+        <v/>
+      </c>
+      <c r="W7" t="str">
+        <v/>
+      </c>
+      <c r="X7" t="str">
+        <v>C</v>
+      </c>
+      <c r="Y7" t="str">
+        <v>B</v>
+      </c>
+      <c r="Z7">
+        <v>7</v>
+      </c>
+      <c r="AA7">
+        <v>3</v>
+      </c>
+      <c r="AB7" t="str">
+        <v>BCEH</v>
+      </c>
+      <c r="AC7" t="str">
+        <v/>
+      </c>
+      <c r="AD7" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8">
+        <v>8</v>
+      </c>
+      <c r="B8" t="str">
+        <v>重庆市</v>
+      </c>
+      <c r="C8" t="str">
+        <v>重庆市</v>
+      </c>
+      <c r="D8" t="str">
+        <v>B</v>
+      </c>
+      <c r="E8" t="str">
+        <v>B</v>
+      </c>
+      <c r="F8" t="str">
+        <v>C</v>
+      </c>
+      <c r="G8" t="str">
+        <v>C</v>
+      </c>
+      <c r="H8" t="str">
+        <v>C</v>
+      </c>
+      <c r="I8" t="str">
+        <v>A</v>
+      </c>
+      <c r="J8" t="str">
+        <v>C</v>
+      </c>
+      <c r="K8" t="str">
+        <v>B</v>
+      </c>
+      <c r="L8" t="str">
+        <v>A</v>
+      </c>
+      <c r="M8" t="str">
+        <v>A</v>
+      </c>
+      <c r="N8" t="str">
+        <v>C</v>
+      </c>
+      <c r="O8" t="str">
+        <v>A</v>
+      </c>
+      <c r="P8" t="str">
+        <v>A</v>
+      </c>
+      <c r="Q8" t="str">
+        <v>A</v>
+      </c>
+      <c r="R8" t="str">
+        <v>A</v>
+      </c>
+      <c r="S8" t="str">
+        <v>A</v>
+      </c>
+      <c r="T8" t="str">
+        <v>A</v>
+      </c>
+      <c r="U8" t="str">
+        <v>A</v>
+      </c>
+      <c r="V8" t="str">
+        <v>B</v>
+      </c>
+      <c r="W8" t="str">
+        <v/>
+      </c>
+      <c r="X8" t="str">
+        <v>A</v>
+      </c>
+      <c r="Y8" t="str">
+        <v>C</v>
+      </c>
+      <c r="Z8">
+        <v>6</v>
+      </c>
+      <c r="AA8">
+        <v>9</v>
+      </c>
+      <c r="AB8" t="str">
+        <v>BDEG</v>
+      </c>
+      <c r="AC8" t="str">
+        <v/>
+      </c>
+      <c r="AD8" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9">
+        <v>9</v>
+      </c>
+      <c r="B9" t="str">
+        <v>重庆市</v>
+      </c>
+      <c r="C9" t="str">
+        <v>重庆市</v>
+      </c>
+      <c r="D9" t="str">
+        <v>B</v>
+      </c>
+      <c r="E9" t="str">
+        <v>A</v>
+      </c>
+      <c r="F9" t="str">
+        <v>C</v>
+      </c>
+      <c r="G9" t="str">
+        <v>C</v>
+      </c>
+      <c r="H9" t="str">
+        <v>A</v>
+      </c>
+      <c r="I9" t="str">
+        <v>D</v>
+      </c>
+      <c r="J9" t="str">
+        <v>D</v>
+      </c>
+      <c r="K9" t="str">
+        <v>C</v>
+      </c>
+      <c r="L9" t="str">
+        <v>C</v>
+      </c>
+      <c r="M9" t="str">
+        <v>A</v>
+      </c>
+      <c r="N9" t="str">
+        <v>A</v>
+      </c>
+      <c r="O9" t="str">
+        <v>B</v>
+      </c>
+      <c r="P9" t="str">
+        <v>A</v>
+      </c>
+      <c r="Q9" t="str">
+        <v>A</v>
+      </c>
+      <c r="R9" t="str">
+        <v>A</v>
+      </c>
+      <c r="S9" t="str">
+        <v>A</v>
+      </c>
+      <c r="T9" t="str">
+        <v>A</v>
+      </c>
+      <c r="U9" t="str">
+        <v>A</v>
+      </c>
+      <c r="V9" t="str">
+        <v>A</v>
+      </c>
+      <c r="W9" t="str">
+        <v/>
+      </c>
+      <c r="X9" t="str">
+        <v>A</v>
+      </c>
+      <c r="Y9" t="str">
+        <v>C</v>
+      </c>
+      <c r="Z9">
+        <v>7</v>
+      </c>
+      <c r="AA9">
+        <v>9</v>
+      </c>
+      <c r="AB9" t="str">
+        <v>AFG</v>
+      </c>
+      <c r="AC9" t="str">
+        <v/>
+      </c>
+      <c r="AD9" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10">
+        <v>10</v>
+      </c>
+      <c r="B10" t="str">
+        <v>重庆市</v>
+      </c>
+      <c r="C10" t="str">
+        <v>重庆市</v>
+      </c>
+      <c r="D10" t="str">
+        <v>B</v>
+      </c>
+      <c r="E10" t="str">
+        <v>A</v>
+      </c>
+      <c r="F10" t="str">
+        <v>D</v>
+      </c>
+      <c r="G10" t="str">
+        <v>C</v>
+      </c>
+      <c r="H10" t="str">
+        <v>B</v>
+      </c>
+      <c r="I10" t="str">
+        <v>A</v>
+      </c>
+      <c r="J10" t="str">
+        <v>B</v>
+      </c>
+      <c r="K10" t="str">
+        <v>B</v>
+      </c>
+      <c r="L10" t="str">
+        <v>D</v>
+      </c>
+      <c r="M10" t="str">
+        <v>D</v>
+      </c>
+      <c r="N10" t="str">
+        <v>D</v>
+      </c>
+      <c r="O10" t="str">
+        <v>A</v>
+      </c>
+      <c r="P10" t="str">
+        <v>A</v>
+      </c>
+      <c r="Q10" t="str">
+        <v>A</v>
+      </c>
+      <c r="R10" t="str">
+        <v>C</v>
+      </c>
+      <c r="S10" t="str">
+        <v>C</v>
+      </c>
+      <c r="T10" t="str">
+        <v>A</v>
+      </c>
+      <c r="U10" t="str">
+        <v>C</v>
+      </c>
+      <c r="V10" t="str">
+        <v>B</v>
+      </c>
+      <c r="W10" t="str">
+        <v/>
+      </c>
+      <c r="X10" t="str">
+        <v>B</v>
+      </c>
+      <c r="Y10" t="str">
+        <v>A</v>
+      </c>
+      <c r="Z10">
+        <v>2</v>
+      </c>
+      <c r="AA10">
+        <v>9</v>
+      </c>
+      <c r="AB10" t="str">
+        <v>ABCDEG</v>
+      </c>
+      <c r="AC10" t="str">
+        <v/>
+      </c>
+      <c r="AD10" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11">
+        <v>11</v>
+      </c>
+      <c r="B11" t="str">
+        <v>重庆市</v>
+      </c>
+      <c r="C11" t="str">
+        <v>重庆市</v>
+      </c>
+      <c r="D11" t="str">
+        <v>B</v>
+      </c>
+      <c r="E11" t="str">
+        <v>A</v>
+      </c>
+      <c r="F11" t="str">
+        <v>D</v>
+      </c>
+      <c r="G11" t="str">
+        <v>A</v>
+      </c>
+      <c r="H11" t="str">
+        <v>A</v>
+      </c>
+      <c r="I11" t="str">
+        <v>B</v>
+      </c>
+      <c r="J11" t="str">
+        <v>A</v>
+      </c>
+      <c r="K11" t="str">
+        <v>A</v>
+      </c>
+      <c r="L11" t="str">
+        <v>C</v>
+      </c>
+      <c r="M11" t="str">
+        <v>C</v>
+      </c>
+      <c r="N11" t="str">
+        <v>C</v>
+      </c>
+      <c r="O11" t="str">
+        <v>C</v>
+      </c>
+      <c r="P11" t="str">
+        <v>B</v>
+      </c>
+      <c r="Q11" t="str">
+        <v>C</v>
+      </c>
+      <c r="R11" t="str">
+        <v>B</v>
+      </c>
+      <c r="S11" t="str">
+        <v>D</v>
+      </c>
+      <c r="T11" t="str">
+        <v>A</v>
+      </c>
+      <c r="U11" t="str">
+        <v>C</v>
+      </c>
+      <c r="V11" t="str">
+        <v>C</v>
+      </c>
+      <c r="W11" t="str">
+        <v/>
+      </c>
+      <c r="X11" t="str">
+        <v>B</v>
+      </c>
+      <c r="Y11" t="str">
+        <v>B</v>
+      </c>
+      <c r="Z11">
+        <v>1</v>
+      </c>
+      <c r="AA11">
+        <v>6</v>
+      </c>
+      <c r="AB11" t="str">
+        <v>AD</v>
+      </c>
+      <c r="AC11" t="str">
+        <v/>
+      </c>
+      <c r="AD11" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12">
+        <v>12</v>
+      </c>
+      <c r="B12" t="str">
+        <v>重庆市</v>
+      </c>
+      <c r="C12" t="str">
+        <v>重庆市</v>
+      </c>
+      <c r="D12" t="str">
+        <v>B</v>
+      </c>
+      <c r="E12" t="str">
+        <v>B</v>
+      </c>
+      <c r="F12" t="str">
+        <v>A</v>
+      </c>
+      <c r="G12" t="str">
+        <v>A</v>
+      </c>
+      <c r="H12" t="str">
+        <v>C</v>
+      </c>
+      <c r="I12" t="str">
+        <v>B</v>
+      </c>
+      <c r="J12" t="str">
+        <v>C</v>
+      </c>
+      <c r="K12" t="str">
+        <v>C</v>
+      </c>
+      <c r="L12" t="str">
+        <v>D</v>
+      </c>
+      <c r="M12" t="str">
+        <v>C</v>
+      </c>
+      <c r="N12" t="str">
+        <v>D</v>
+      </c>
+      <c r="O12" t="str">
+        <v>A</v>
+      </c>
+      <c r="P12" t="str">
+        <v>C</v>
+      </c>
+      <c r="Q12" t="str">
+        <v>A</v>
+      </c>
+      <c r="R12" t="str">
+        <v>C</v>
+      </c>
+      <c r="S12" t="str">
+        <v>C</v>
+      </c>
+      <c r="T12" t="str">
+        <v>B</v>
+      </c>
+      <c r="U12" t="str">
+        <v/>
+      </c>
+      <c r="V12" t="str">
+        <v/>
+      </c>
+      <c r="W12" t="str">
+        <v/>
+      </c>
+      <c r="X12" t="str">
+        <v>B</v>
+      </c>
+      <c r="Y12" t="str">
+        <v>C</v>
+      </c>
+      <c r="Z12">
+        <v>4</v>
+      </c>
+      <c r="AA12">
+        <v>3</v>
+      </c>
+      <c r="AB12" t="str">
+        <v>BDEFGH</v>
+      </c>
+      <c r="AC12" t="str">
+        <v/>
+      </c>
+      <c r="AD12" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13">
+        <v>13</v>
+      </c>
+      <c r="B13" t="str">
+        <v>重庆市</v>
+      </c>
+      <c r="C13" t="str">
+        <v>重庆市</v>
+      </c>
+      <c r="D13" t="str">
+        <v>B</v>
+      </c>
+      <c r="E13" t="str">
+        <v>B</v>
+      </c>
+      <c r="F13" t="str">
+        <v>D</v>
+      </c>
+      <c r="G13" t="str">
+        <v>B</v>
+      </c>
+      <c r="H13" t="str">
+        <v>C</v>
+      </c>
+      <c r="I13" t="str">
+        <v>B</v>
+      </c>
+      <c r="J13" t="str">
+        <v>D</v>
+      </c>
+      <c r="K13" t="str">
+        <v>D</v>
+      </c>
+      <c r="L13" t="str">
+        <v>A</v>
+      </c>
+      <c r="M13" t="str">
+        <v>D</v>
+      </c>
+      <c r="N13" t="str">
+        <v>C</v>
+      </c>
+      <c r="O13" t="str">
+        <v>B</v>
+      </c>
+      <c r="P13" t="str">
+        <v>A</v>
+      </c>
+      <c r="Q13" t="str">
+        <v>A</v>
+      </c>
+      <c r="R13" t="str">
+        <v>B</v>
+      </c>
+      <c r="S13" t="str">
+        <v>B</v>
+      </c>
+      <c r="T13" t="str">
+        <v>B</v>
+      </c>
+      <c r="U13" t="str">
+        <v/>
+      </c>
+      <c r="V13" t="str">
+        <v/>
+      </c>
+      <c r="W13" t="str">
+        <v/>
+      </c>
+      <c r="X13" t="str">
+        <v>B</v>
+      </c>
+      <c r="Y13" t="str">
+        <v>C</v>
+      </c>
+      <c r="Z13">
+        <v>7</v>
+      </c>
+      <c r="AA13">
+        <v>7</v>
+      </c>
+      <c r="AB13" t="str">
+        <v>GH</v>
+      </c>
+      <c r="AC13" t="str">
+        <v/>
+      </c>
+      <c r="AD13" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14">
+        <v>14</v>
+      </c>
+      <c r="B14" t="str">
+        <v>重庆市</v>
+      </c>
+      <c r="C14" t="str">
+        <v>重庆市</v>
+      </c>
+      <c r="D14" t="str">
+        <v>B</v>
+      </c>
+      <c r="E14" t="str">
+        <v>B</v>
+      </c>
+      <c r="F14" t="str">
+        <v>A</v>
+      </c>
+      <c r="G14" t="str">
+        <v>A</v>
+      </c>
+      <c r="H14" t="str">
+        <v>C</v>
+      </c>
+      <c r="I14" t="str">
+        <v>B</v>
+      </c>
+      <c r="J14" t="str">
+        <v>C</v>
+      </c>
+      <c r="K14" t="str">
+        <v>D</v>
+      </c>
+      <c r="L14" t="str">
+        <v>B</v>
+      </c>
+      <c r="M14" t="str">
+        <v>B</v>
+      </c>
+      <c r="N14" t="str">
+        <v>A</v>
+      </c>
+      <c r="O14" t="str">
+        <v>C</v>
+      </c>
+      <c r="P14" t="str">
+        <v>C</v>
+      </c>
+      <c r="Q14" t="str">
+        <v>C</v>
+      </c>
+      <c r="R14" t="str">
+        <v>C</v>
+      </c>
+      <c r="S14" t="str">
+        <v>B</v>
+      </c>
+      <c r="T14" t="str">
+        <v>B</v>
+      </c>
+      <c r="U14" t="str">
+        <v/>
+      </c>
+      <c r="V14" t="str">
+        <v/>
+      </c>
+      <c r="W14" t="str">
+        <v/>
+      </c>
+      <c r="X14" t="str">
+        <v>A</v>
+      </c>
+      <c r="Y14" t="str">
+        <v>C</v>
+      </c>
+      <c r="Z14">
+        <v>2</v>
+      </c>
+      <c r="AA14">
+        <v>9</v>
+      </c>
+      <c r="AB14" t="str">
+        <v>ABCEF</v>
+      </c>
+      <c r="AC14" t="str">
+        <v/>
+      </c>
+      <c r="AD14" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15">
+        <v>15</v>
+      </c>
+      <c r="B15" t="str">
+        <v>重庆市</v>
+      </c>
+      <c r="C15" t="str">
+        <v>重庆市</v>
+      </c>
+      <c r="D15" t="str">
+        <v>B</v>
+      </c>
+      <c r="E15" t="str">
+        <v>A</v>
+      </c>
+      <c r="F15" t="str">
+        <v>A</v>
+      </c>
+      <c r="G15" t="str">
+        <v>A</v>
+      </c>
+      <c r="H15" t="str">
+        <v>C</v>
+      </c>
+      <c r="I15" t="str">
+        <v>A</v>
+      </c>
+      <c r="J15" t="str">
+        <v>D</v>
+      </c>
+      <c r="K15" t="str">
+        <v>B</v>
+      </c>
+      <c r="L15" t="str">
+        <v>A</v>
+      </c>
+      <c r="M15" t="str">
+        <v>A</v>
+      </c>
+      <c r="N15" t="str">
+        <v>A</v>
+      </c>
+      <c r="O15" t="str">
+        <v>A</v>
+      </c>
+      <c r="P15" t="str">
+        <v>A</v>
+      </c>
+      <c r="Q15" t="str">
+        <v>A</v>
+      </c>
+      <c r="R15" t="str">
+        <v>C</v>
+      </c>
+      <c r="S15" t="str">
+        <v>B</v>
+      </c>
+      <c r="T15" t="str">
+        <v>A</v>
+      </c>
+      <c r="U15" t="str">
+        <v>D</v>
+      </c>
+      <c r="V15" t="str">
+        <v>C</v>
+      </c>
+      <c r="W15" t="str">
+        <v/>
+      </c>
+      <c r="X15" t="str">
+        <v>A</v>
+      </c>
+      <c r="Y15" t="str">
+        <v>C</v>
+      </c>
+      <c r="Z15">
+        <v>4</v>
+      </c>
+      <c r="AA15">
+        <v>2</v>
+      </c>
+      <c r="AB15" t="str">
+        <v>BEF</v>
+      </c>
+      <c r="AC15" t="str">
+        <v/>
+      </c>
+      <c r="AD15" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16">
+        <v>16</v>
+      </c>
+      <c r="B16" t="str">
+        <v>重庆市</v>
+      </c>
+      <c r="C16" t="str">
+        <v>重庆市</v>
+      </c>
+      <c r="D16" t="str">
+        <v>B</v>
+      </c>
+      <c r="E16" t="str">
+        <v>B</v>
+      </c>
+      <c r="F16" t="str">
+        <v>C</v>
+      </c>
+      <c r="G16" t="str">
+        <v>A</v>
+      </c>
+      <c r="H16" t="str">
+        <v>A</v>
+      </c>
+      <c r="I16" t="str">
+        <v>B</v>
+      </c>
+      <c r="J16" t="str">
+        <v>C</v>
+      </c>
+      <c r="K16" t="str">
+        <v>A</v>
+      </c>
+      <c r="L16" t="str">
+        <v>B</v>
+      </c>
+      <c r="M16" t="str">
+        <v>B</v>
+      </c>
+      <c r="N16" t="str">
+        <v>C</v>
+      </c>
+      <c r="O16" t="str">
+        <v>C</v>
+      </c>
+      <c r="P16" t="str">
+        <v>A</v>
+      </c>
+      <c r="Q16" t="str">
+        <v>A</v>
+      </c>
+      <c r="R16" t="str">
+        <v>B</v>
+      </c>
+      <c r="S16" t="str">
+        <v>A</v>
+      </c>
+      <c r="T16" t="str">
+        <v>A</v>
+      </c>
+      <c r="U16" t="str">
+        <v>A</v>
+      </c>
+      <c r="V16" t="str">
+        <v>C</v>
+      </c>
+      <c r="W16" t="str">
+        <v/>
+      </c>
+      <c r="X16" t="str">
+        <v>A</v>
+      </c>
+      <c r="Y16" t="str">
+        <v>C</v>
+      </c>
+      <c r="Z16">
+        <v>5</v>
+      </c>
+      <c r="AA16">
+        <v>9</v>
+      </c>
+      <c r="AB16" t="str">
+        <v>CEFG</v>
+      </c>
+      <c r="AC16" t="str">
+        <v/>
+      </c>
+      <c r="AD16" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17">
+        <v>17</v>
+      </c>
+      <c r="B17" t="str">
+        <v>重庆市</v>
+      </c>
+      <c r="C17" t="str">
+        <v>重庆市</v>
+      </c>
+      <c r="D17" t="str">
+        <v>B</v>
+      </c>
+      <c r="E17" t="str">
+        <v>A</v>
+      </c>
+      <c r="F17" t="str">
+        <v>A</v>
+      </c>
+      <c r="G17" t="str">
+        <v>A</v>
+      </c>
+      <c r="H17" t="str">
+        <v>B</v>
+      </c>
+      <c r="I17" t="str">
+        <v>B</v>
+      </c>
+      <c r="J17" t="str">
+        <v>B</v>
+      </c>
+      <c r="K17" t="str">
+        <v>B</v>
+      </c>
+      <c r="L17" t="str">
+        <v>C</v>
+      </c>
+      <c r="M17" t="str">
+        <v>C</v>
+      </c>
+      <c r="N17" t="str">
+        <v>C</v>
+      </c>
+      <c r="O17" t="str">
+        <v>C</v>
+      </c>
+      <c r="P17" t="str">
+        <v>A</v>
+      </c>
+      <c r="Q17" t="str">
+        <v>C</v>
+      </c>
+      <c r="R17" t="str">
+        <v>B</v>
+      </c>
+      <c r="S17" t="str">
+        <v>A</v>
+      </c>
+      <c r="T17" t="str">
+        <v>B</v>
+      </c>
+      <c r="U17" t="str">
+        <v/>
+      </c>
+      <c r="V17" t="str">
+        <v/>
+      </c>
+      <c r="W17" t="str">
+        <v/>
+      </c>
+      <c r="X17" t="str">
+        <v>A</v>
+      </c>
+      <c r="Y17" t="str">
+        <v>B</v>
+      </c>
+      <c r="Z17">
+        <v>9</v>
+      </c>
+      <c r="AA17">
+        <v>6</v>
+      </c>
+      <c r="AB17" t="str">
+        <v>ACGH</v>
+      </c>
+      <c r="AC17" t="str">
+        <v/>
+      </c>
+      <c r="AD17" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18">
+        <v>18</v>
+      </c>
+      <c r="B18" t="str">
+        <v>重庆市</v>
+      </c>
+      <c r="C18" t="str">
+        <v>重庆市</v>
+      </c>
+      <c r="D18" t="str">
+        <v>B</v>
+      </c>
+      <c r="E18" t="str">
+        <v>B</v>
+      </c>
+      <c r="F18" t="str">
+        <v>B</v>
+      </c>
+      <c r="G18" t="str">
+        <v>A</v>
+      </c>
+      <c r="H18" t="str">
+        <v>C</v>
+      </c>
+      <c r="I18" t="str">
+        <v>D</v>
+      </c>
+      <c r="J18" t="str">
+        <v>C</v>
+      </c>
+      <c r="K18" t="str">
+        <v>B</v>
+      </c>
+      <c r="L18" t="str">
+        <v>A</v>
+      </c>
+      <c r="M18" t="str">
+        <v>A</v>
+      </c>
+      <c r="N18" t="str">
+        <v>A</v>
+      </c>
+      <c r="O18" t="str">
+        <v>A</v>
+      </c>
+      <c r="P18" t="str">
+        <v>B</v>
+      </c>
+      <c r="Q18" t="str">
+        <v>A</v>
+      </c>
+      <c r="R18" t="str">
+        <v>C</v>
+      </c>
+      <c r="S18" t="str">
+        <v>A</v>
+      </c>
+      <c r="T18" t="str">
+        <v>B</v>
+      </c>
+      <c r="U18" t="str">
+        <v/>
+      </c>
+      <c r="V18" t="str">
+        <v/>
+      </c>
+      <c r="W18" t="str">
+        <v/>
+      </c>
+      <c r="X18" t="str">
+        <v>C</v>
+      </c>
+      <c r="Y18" t="str">
+        <v>C</v>
+      </c>
+      <c r="Z18">
+        <v>4</v>
+      </c>
+      <c r="AA18">
+        <v>8</v>
+      </c>
+      <c r="AB18" t="str">
+        <v>FGH</v>
+      </c>
+      <c r="AC18" t="str">
+        <v/>
+      </c>
+      <c r="AD18" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19">
+        <v>19</v>
+      </c>
+      <c r="B19" t="str">
+        <v>重庆市</v>
+      </c>
+      <c r="C19" t="str">
+        <v>重庆市</v>
+      </c>
+      <c r="D19" t="str">
+        <v>B</v>
+      </c>
+      <c r="E19" t="str">
+        <v>B</v>
+      </c>
+      <c r="F19" t="str">
+        <v>A</v>
+      </c>
+      <c r="G19" t="str">
+        <v>C</v>
+      </c>
+      <c r="H19" t="str">
+        <v>B</v>
+      </c>
+      <c r="I19" t="str">
+        <v>A</v>
+      </c>
+      <c r="J19" t="str">
+        <v>D</v>
+      </c>
+      <c r="K19" t="str">
+        <v>A</v>
+      </c>
+      <c r="L19" t="str">
+        <v>D</v>
+      </c>
+      <c r="M19" t="str">
+        <v>C</v>
+      </c>
+      <c r="N19" t="str">
+        <v>A</v>
+      </c>
+      <c r="O19" t="str">
+        <v>A</v>
+      </c>
+      <c r="P19" t="str">
+        <v>A</v>
+      </c>
+      <c r="Q19" t="str">
+        <v>B</v>
+      </c>
+      <c r="R19" t="str">
+        <v>C</v>
+      </c>
+      <c r="S19" t="str">
+        <v>B</v>
+      </c>
+      <c r="T19" t="str">
+        <v>B</v>
+      </c>
+      <c r="U19" t="str">
+        <v/>
+      </c>
+      <c r="V19" t="str">
+        <v/>
+      </c>
+      <c r="W19" t="str">
+        <v/>
+      </c>
+      <c r="X19" t="str">
+        <v>A</v>
+      </c>
+      <c r="Y19" t="str">
+        <v>C</v>
+      </c>
+      <c r="Z19">
+        <v>0</v>
+      </c>
+      <c r="AA19">
+        <v>0</v>
+      </c>
+      <c r="AB19" t="str">
+        <v>CDEG</v>
+      </c>
+      <c r="AC19" t="str">
+        <v/>
+      </c>
+      <c r="AD19" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20">
+        <v>20</v>
+      </c>
+      <c r="B20" t="str">
+        <v>重庆市</v>
+      </c>
+      <c r="C20" t="str">
+        <v>重庆市</v>
+      </c>
+      <c r="D20" t="str">
+        <v>B</v>
+      </c>
+      <c r="E20" t="str">
+        <v>B</v>
+      </c>
+      <c r="F20" t="str">
+        <v>B</v>
+      </c>
+      <c r="G20" t="str">
+        <v>C</v>
+      </c>
+      <c r="H20" t="str">
+        <v>A</v>
+      </c>
+      <c r="I20" t="str">
+        <v>D</v>
+      </c>
+      <c r="J20" t="str">
+        <v>C</v>
+      </c>
+      <c r="K20" t="str">
+        <v>B</v>
+      </c>
+      <c r="L20" t="str">
+        <v>D</v>
+      </c>
+      <c r="M20" t="str">
+        <v>B</v>
+      </c>
+      <c r="N20" t="str">
+        <v>B</v>
+      </c>
+      <c r="O20" t="str">
+        <v>A</v>
+      </c>
+      <c r="P20" t="str">
+        <v>A</v>
+      </c>
+      <c r="Q20" t="str">
+        <v>B</v>
+      </c>
+      <c r="R20" t="str">
+        <v>C</v>
+      </c>
+      <c r="S20" t="str">
+        <v>C</v>
+      </c>
+      <c r="T20" t="str">
+        <v>B</v>
+      </c>
+      <c r="U20" t="str">
+        <v/>
+      </c>
+      <c r="V20" t="str">
+        <v/>
+      </c>
+      <c r="W20" t="str">
+        <v/>
+      </c>
+      <c r="X20" t="str">
+        <v>B</v>
+      </c>
+      <c r="Y20" t="str">
+        <v>A</v>
+      </c>
+      <c r="Z20">
+        <v>0</v>
+      </c>
+      <c r="AA20">
+        <v>0</v>
+      </c>
+      <c r="AB20" t="str">
+        <v>EFH</v>
+      </c>
+      <c r="AC20" t="str">
+        <v/>
+      </c>
+      <c r="AD20" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21">
+        <v>21</v>
+      </c>
+      <c r="B21" t="str">
+        <v>重庆市</v>
+      </c>
+      <c r="C21" t="str">
+        <v>重庆市</v>
+      </c>
+      <c r="D21" t="str">
+        <v>B</v>
+      </c>
+      <c r="E21" t="str">
+        <v>A</v>
+      </c>
+      <c r="F21" t="str">
+        <v>A</v>
+      </c>
+      <c r="G21" t="str">
+        <v>A</v>
+      </c>
+      <c r="H21" t="str">
+        <v>B</v>
+      </c>
+      <c r="I21" t="str">
+        <v>B</v>
+      </c>
+      <c r="J21" t="str">
+        <v>C</v>
+      </c>
+      <c r="K21" t="str">
+        <v>A</v>
+      </c>
+      <c r="L21" t="str">
+        <v>C</v>
+      </c>
+      <c r="M21" t="str">
+        <v>C</v>
+      </c>
+      <c r="N21" t="str">
+        <v>B</v>
+      </c>
+      <c r="O21" t="str">
+        <v>C</v>
+      </c>
+      <c r="P21" t="str">
+        <v>A</v>
+      </c>
+      <c r="Q21" t="str">
+        <v>C</v>
+      </c>
+      <c r="R21" t="str">
+        <v>C</v>
+      </c>
+      <c r="S21" t="str">
+        <v>C</v>
+      </c>
+      <c r="T21" t="str">
+        <v>A</v>
+      </c>
+      <c r="U21" t="str">
+        <v>B</v>
+      </c>
+      <c r="V21" t="str">
+        <v>B</v>
+      </c>
+      <c r="W21" t="str">
+        <v/>
+      </c>
+      <c r="X21" t="str">
+        <v>B</v>
+      </c>
+      <c r="Y21" t="str">
+        <v>B</v>
+      </c>
+      <c r="Z21">
+        <v>0</v>
+      </c>
+      <c r="AA21">
+        <v>2</v>
+      </c>
+      <c r="AB21" t="str">
+        <v>EG</v>
+      </c>
+      <c r="AC21" t="str">
+        <v/>
+      </c>
+      <c r="AD21" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22">
+        <v>22</v>
+      </c>
+      <c r="B22" t="str">
+        <v>重庆市</v>
+      </c>
+      <c r="C22" t="str">
+        <v>重庆市</v>
+      </c>
+      <c r="D22" t="str">
+        <v>B</v>
+      </c>
+      <c r="E22" t="str">
+        <v>B</v>
+      </c>
+      <c r="F22" t="str">
+        <v>B</v>
+      </c>
+      <c r="G22" t="str">
+        <v>B</v>
+      </c>
+      <c r="H22" t="str">
+        <v>C</v>
+      </c>
+      <c r="I22" t="str">
+        <v>D</v>
+      </c>
+      <c r="J22" t="str">
+        <v>A</v>
+      </c>
+      <c r="K22" t="str">
+        <v>A</v>
+      </c>
+      <c r="L22" t="str">
+        <v>B</v>
+      </c>
+      <c r="M22" t="str">
+        <v>D</v>
+      </c>
+      <c r="N22" t="str">
+        <v>D</v>
+      </c>
+      <c r="O22" t="str">
+        <v>C</v>
+      </c>
+      <c r="P22" t="str">
+        <v>B</v>
+      </c>
+      <c r="Q22" t="str">
+        <v>C</v>
+      </c>
+      <c r="R22" t="str">
+        <v>B</v>
+      </c>
+      <c r="S22" t="str">
+        <v>A</v>
+      </c>
+      <c r="T22" t="str">
+        <v>A</v>
+      </c>
+      <c r="U22" t="str">
+        <v>C</v>
+      </c>
+      <c r="V22" t="str">
+        <v>D</v>
+      </c>
+      <c r="W22" t="str">
+        <v/>
+      </c>
+      <c r="X22" t="str">
+        <v>C</v>
+      </c>
+      <c r="Y22" t="str">
+        <v>B</v>
+      </c>
+      <c r="Z22">
+        <v>8</v>
+      </c>
+      <c r="AA22">
+        <v>8</v>
+      </c>
+      <c r="AB22" t="str">
+        <v>CEFH</v>
+      </c>
+      <c r="AC22" t="str">
+        <v/>
+      </c>
+      <c r="AD22" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23">
+        <v>23</v>
+      </c>
+      <c r="B23" t="str">
+        <v>重庆市</v>
+      </c>
+      <c r="C23" t="str">
+        <v>重庆市</v>
+      </c>
+      <c r="D23" t="str">
+        <v>B</v>
+      </c>
+      <c r="E23" t="str">
+        <v>B</v>
+      </c>
+      <c r="F23" t="str">
+        <v>C</v>
+      </c>
+      <c r="G23" t="str">
+        <v>C</v>
+      </c>
+      <c r="H23" t="str">
+        <v>B</v>
+      </c>
+      <c r="I23" t="str">
+        <v>B</v>
+      </c>
+      <c r="J23" t="str">
+        <v>B</v>
+      </c>
+      <c r="K23" t="str">
+        <v>A</v>
+      </c>
+      <c r="L23" t="str">
+        <v>C</v>
+      </c>
+      <c r="M23" t="str">
+        <v>A</v>
+      </c>
+      <c r="N23" t="str">
+        <v>A</v>
+      </c>
+      <c r="O23" t="str">
+        <v>C</v>
+      </c>
+      <c r="P23" t="str">
+        <v>A</v>
+      </c>
+      <c r="Q23" t="str">
+        <v>A</v>
+      </c>
+      <c r="R23" t="str">
+        <v>B</v>
+      </c>
+      <c r="S23" t="str">
+        <v>B</v>
+      </c>
+      <c r="T23" t="str">
+        <v>B</v>
+      </c>
+      <c r="U23" t="str">
+        <v/>
+      </c>
+      <c r="V23" t="str">
+        <v/>
+      </c>
+      <c r="W23" t="str">
+        <v/>
+      </c>
+      <c r="X23" t="str">
+        <v>B</v>
+      </c>
+      <c r="Y23" t="str">
+        <v>A</v>
+      </c>
+      <c r="Z23">
+        <v>9</v>
+      </c>
+      <c r="AA23">
+        <v>9</v>
+      </c>
+      <c r="AB23" t="str">
+        <v>ADFH</v>
+      </c>
+      <c r="AC23" t="str">
+        <v/>
+      </c>
+      <c r="AD23" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24">
+        <v>24</v>
+      </c>
+      <c r="B24" t="str">
+        <v>重庆市</v>
+      </c>
+      <c r="C24" t="str">
+        <v>重庆市</v>
+      </c>
+      <c r="D24" t="str">
+        <v>B</v>
+      </c>
+      <c r="E24" t="str">
+        <v>A</v>
+      </c>
+      <c r="F24" t="str">
+        <v>B</v>
+      </c>
+      <c r="G24" t="str">
+        <v>A</v>
+      </c>
+      <c r="H24" t="str">
+        <v>A</v>
+      </c>
+      <c r="I24" t="str">
+        <v>B</v>
+      </c>
+      <c r="J24" t="str">
+        <v>B</v>
+      </c>
+      <c r="K24" t="str">
+        <v>A</v>
+      </c>
+      <c r="L24" t="str">
+        <v>C</v>
+      </c>
+      <c r="M24" t="str">
+        <v>D</v>
+      </c>
+      <c r="N24" t="str">
+        <v>D</v>
+      </c>
+      <c r="O24" t="str">
+        <v>A</v>
+      </c>
+      <c r="P24" t="str">
+        <v>C</v>
+      </c>
+      <c r="Q24" t="str">
+        <v>B</v>
+      </c>
+      <c r="R24" t="str">
+        <v>B</v>
+      </c>
+      <c r="S24" t="str">
+        <v>B</v>
+      </c>
+      <c r="T24" t="str">
+        <v>B</v>
+      </c>
+      <c r="U24" t="str">
+        <v/>
+      </c>
+      <c r="V24" t="str">
+        <v/>
+      </c>
+      <c r="W24" t="str">
+        <v/>
+      </c>
+      <c r="X24" t="str">
+        <v>C</v>
+      </c>
+      <c r="Y24" t="str">
+        <v>A</v>
+      </c>
+      <c r="Z24">
+        <v>1</v>
+      </c>
+      <c r="AA24">
+        <v>7</v>
+      </c>
+      <c r="AB24" t="str">
+        <v>CFGH</v>
+      </c>
+      <c r="AC24" t="str">
+        <v/>
+      </c>
+      <c r="AD24" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25">
+        <v>25</v>
+      </c>
+      <c r="B25" t="str">
+        <v>重庆市</v>
+      </c>
+      <c r="C25" t="str">
+        <v>重庆市</v>
+      </c>
+      <c r="D25" t="str">
+        <v>B</v>
+      </c>
+      <c r="E25" t="str">
+        <v>B</v>
+      </c>
+      <c r="F25" t="str">
+        <v>D</v>
+      </c>
+      <c r="G25" t="str">
+        <v>A</v>
+      </c>
+      <c r="H25" t="str">
+        <v>C</v>
+      </c>
+      <c r="I25" t="str">
+        <v>D</v>
+      </c>
+      <c r="J25" t="str">
+        <v>D</v>
+      </c>
+      <c r="K25" t="str">
+        <v>B</v>
+      </c>
+      <c r="L25" t="str">
+        <v>D</v>
+      </c>
+      <c r="M25" t="str">
+        <v>C</v>
+      </c>
+      <c r="N25" t="str">
+        <v>C</v>
+      </c>
+      <c r="O25" t="str">
+        <v>B</v>
+      </c>
+      <c r="P25" t="str">
+        <v>B</v>
+      </c>
+      <c r="Q25" t="str">
+        <v>B</v>
+      </c>
+      <c r="R25" t="str">
+        <v>C</v>
+      </c>
+      <c r="S25" t="str">
+        <v>A</v>
+      </c>
+      <c r="T25" t="str">
+        <v>B</v>
+      </c>
+      <c r="U25" t="str">
+        <v/>
+      </c>
+      <c r="V25" t="str">
+        <v/>
+      </c>
+      <c r="W25" t="str">
+        <v/>
+      </c>
+      <c r="X25" t="str">
+        <v>A</v>
+      </c>
+      <c r="Y25" t="str">
+        <v>B</v>
+      </c>
+      <c r="Z25">
+        <v>0</v>
+      </c>
+      <c r="AA25">
+        <v>8</v>
+      </c>
+      <c r="AB25" t="str">
+        <v>ADG</v>
+      </c>
+      <c r="AC25" t="str">
+        <v/>
+      </c>
+      <c r="AD25" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26">
+        <v>26</v>
+      </c>
+      <c r="B26" t="str">
+        <v>重庆市</v>
+      </c>
+      <c r="C26" t="str">
+        <v>重庆市</v>
+      </c>
+      <c r="D26" t="str">
+        <v>B</v>
+      </c>
+      <c r="E26" t="str">
+        <v>A</v>
+      </c>
+      <c r="F26" t="str">
+        <v>C</v>
+      </c>
+      <c r="G26" t="str">
+        <v>B</v>
+      </c>
+      <c r="H26" t="str">
+        <v>C</v>
+      </c>
+      <c r="I26" t="str">
+        <v>C</v>
+      </c>
+      <c r="J26" t="str">
+        <v>C</v>
+      </c>
+      <c r="K26" t="str">
+        <v>C</v>
+      </c>
+      <c r="L26" t="str">
+        <v>B</v>
+      </c>
+      <c r="M26" t="str">
+        <v>B</v>
+      </c>
+      <c r="N26" t="str">
+        <v>B</v>
+      </c>
+      <c r="O26" t="str">
+        <v>B</v>
+      </c>
+      <c r="P26" t="str">
+        <v>A</v>
+      </c>
+      <c r="Q26" t="str">
+        <v>C</v>
+      </c>
+      <c r="R26" t="str">
+        <v>B</v>
+      </c>
+      <c r="S26" t="str">
+        <v>A</v>
+      </c>
+      <c r="T26" t="str">
+        <v>A</v>
+      </c>
+      <c r="U26" t="str">
+        <v>B</v>
+      </c>
+      <c r="V26" t="str">
+        <v>D</v>
+      </c>
+      <c r="W26" t="str">
+        <v/>
+      </c>
+      <c r="X26" t="str">
+        <v>C</v>
+      </c>
+      <c r="Y26" t="str">
+        <v>C</v>
+      </c>
+      <c r="Z26">
+        <v>7</v>
+      </c>
+      <c r="AA26">
+        <v>9</v>
+      </c>
+      <c r="AB26" t="str">
+        <v>BCDFG</v>
+      </c>
+      <c r="AC26" t="str">
+        <v/>
+      </c>
+      <c r="AD26" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27">
+        <v>27</v>
+      </c>
+      <c r="B27" t="str">
+        <v>重庆市</v>
+      </c>
+      <c r="C27" t="str">
+        <v>重庆市</v>
+      </c>
+      <c r="D27" t="str">
+        <v>B</v>
+      </c>
+      <c r="E27" t="str">
+        <v>B</v>
+      </c>
+      <c r="F27" t="str">
+        <v>D</v>
+      </c>
+      <c r="G27" t="str">
+        <v>C</v>
+      </c>
+      <c r="H27" t="str">
+        <v>B</v>
+      </c>
+      <c r="I27" t="str">
+        <v>A</v>
+      </c>
+      <c r="J27" t="str">
+        <v>A</v>
+      </c>
+      <c r="K27" t="str">
+        <v>D</v>
+      </c>
+      <c r="L27" t="str">
+        <v>A</v>
+      </c>
+      <c r="M27" t="str">
+        <v>D</v>
+      </c>
+      <c r="N27" t="str">
+        <v>C</v>
+      </c>
+      <c r="O27" t="str">
+        <v>A</v>
+      </c>
+      <c r="P27" t="str">
+        <v>A</v>
+      </c>
+      <c r="Q27" t="str">
+        <v>A</v>
+      </c>
+      <c r="R27" t="str">
+        <v>B</v>
+      </c>
+      <c r="S27" t="str">
+        <v>B</v>
+      </c>
+      <c r="T27" t="str">
+        <v>A</v>
+      </c>
+      <c r="U27" t="str">
+        <v>C</v>
+      </c>
+      <c r="V27" t="str">
+        <v>B</v>
+      </c>
+      <c r="W27" t="str">
+        <v/>
+      </c>
+      <c r="X27" t="str">
+        <v>A</v>
+      </c>
+      <c r="Y27" t="str">
+        <v>B</v>
+      </c>
+      <c r="Z27">
+        <v>6</v>
+      </c>
+      <c r="AA27">
+        <v>5</v>
+      </c>
+      <c r="AB27" t="str">
+        <v>BCDG</v>
+      </c>
+      <c r="AC27" t="str">
+        <v/>
+      </c>
+      <c r="AD27" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28">
+        <v>28</v>
+      </c>
+      <c r="B28" t="str">
+        <v>重庆市</v>
+      </c>
+      <c r="C28" t="str">
+        <v>重庆市</v>
+      </c>
+      <c r="D28" t="str">
+        <v>B</v>
+      </c>
+      <c r="E28" t="str">
+        <v>B</v>
+      </c>
+      <c r="F28" t="str">
+        <v>A</v>
+      </c>
+      <c r="G28" t="str">
+        <v>B</v>
+      </c>
+      <c r="H28" t="str">
+        <v>C</v>
+      </c>
+      <c r="I28" t="str">
+        <v>D</v>
+      </c>
+      <c r="J28" t="str">
+        <v>C</v>
+      </c>
+      <c r="K28" t="str">
+        <v>C</v>
+      </c>
+      <c r="L28" t="str">
+        <v>C</v>
+      </c>
+      <c r="M28" t="str">
+        <v>D</v>
+      </c>
+      <c r="N28" t="str">
+        <v>A</v>
+      </c>
+      <c r="O28" t="str">
+        <v>B</v>
+      </c>
+      <c r="P28" t="str">
+        <v>B</v>
+      </c>
+      <c r="Q28" t="str">
+        <v>B</v>
+      </c>
+      <c r="R28" t="str">
+        <v>B</v>
+      </c>
+      <c r="S28" t="str">
+        <v>D</v>
+      </c>
+      <c r="T28" t="str">
+        <v>A</v>
+      </c>
+      <c r="U28" t="str">
+        <v>A</v>
+      </c>
+      <c r="V28" t="str">
+        <v>C</v>
+      </c>
+      <c r="W28" t="str">
+        <v/>
+      </c>
+      <c r="X28" t="str">
+        <v>A</v>
+      </c>
+      <c r="Y28" t="str">
+        <v>C</v>
+      </c>
+      <c r="Z28">
+        <v>1</v>
+      </c>
+      <c r="AA28">
+        <v>8</v>
+      </c>
+      <c r="AB28" t="str">
+        <v>BCDF</v>
+      </c>
+      <c r="AC28" t="str">
+        <v/>
+      </c>
+      <c r="AD28" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29">
+        <v>29</v>
+      </c>
+      <c r="B29" t="str">
+        <v>重庆市</v>
+      </c>
+      <c r="C29" t="str">
+        <v>重庆市</v>
+      </c>
+      <c r="D29" t="str">
+        <v>B</v>
+      </c>
+      <c r="E29" t="str">
+        <v>B</v>
+      </c>
+      <c r="F29" t="str">
+        <v>D</v>
+      </c>
+      <c r="G29" t="str">
+        <v>B</v>
+      </c>
+      <c r="H29" t="str">
+        <v>C</v>
+      </c>
+      <c r="I29" t="str">
+        <v>B</v>
+      </c>
+      <c r="J29" t="str">
+        <v>D</v>
+      </c>
+      <c r="K29" t="str">
+        <v>D</v>
+      </c>
+      <c r="L29" t="str">
+        <v>A</v>
+      </c>
+      <c r="M29" t="str">
+        <v>C</v>
+      </c>
+      <c r="N29" t="str">
+        <v>D</v>
+      </c>
+      <c r="O29" t="str">
+        <v>C</v>
+      </c>
+      <c r="P29" t="str">
+        <v>C</v>
+      </c>
+      <c r="Q29" t="str">
+        <v>A</v>
+      </c>
+      <c r="R29" t="str">
+        <v>C</v>
+      </c>
+      <c r="S29" t="str">
+        <v>A</v>
+      </c>
+      <c r="T29" t="str">
+        <v>A</v>
+      </c>
+      <c r="U29" t="str">
+        <v>B</v>
+      </c>
+      <c r="V29" t="str">
+        <v>A</v>
+      </c>
+      <c r="W29" t="str">
+        <v/>
+      </c>
+      <c r="X29" t="str">
+        <v>C</v>
+      </c>
+      <c r="Y29" t="str">
+        <v>B</v>
+      </c>
+      <c r="Z29">
+        <v>0</v>
+      </c>
+      <c r="AA29">
+        <v>6</v>
+      </c>
+      <c r="AB29" t="str">
+        <v>ABCEFG</v>
+      </c>
+      <c r="AC29" t="str">
+        <v/>
+      </c>
+      <c r="AD29" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30">
+        <v>30</v>
+      </c>
+      <c r="B30" t="str">
+        <v>重庆市</v>
+      </c>
+      <c r="C30" t="str">
+        <v>重庆市</v>
+      </c>
+      <c r="D30" t="str">
+        <v>B</v>
+      </c>
+      <c r="E30" t="str">
+        <v>B</v>
+      </c>
+      <c r="F30" t="str">
+        <v>A</v>
+      </c>
+      <c r="G30" t="str">
+        <v>B</v>
+      </c>
+      <c r="H30" t="str">
+        <v>A</v>
+      </c>
+      <c r="I30" t="str">
+        <v>C</v>
+      </c>
+      <c r="J30" t="str">
+        <v>A</v>
+      </c>
+      <c r="K30" t="str">
+        <v>C</v>
+      </c>
+      <c r="L30" t="str">
+        <v>B</v>
+      </c>
+      <c r="M30" t="str">
+        <v>A</v>
+      </c>
+      <c r="N30" t="str">
+        <v>C</v>
+      </c>
+      <c r="O30" t="str">
+        <v>C</v>
+      </c>
+      <c r="P30" t="str">
+        <v>C</v>
+      </c>
+      <c r="Q30" t="str">
+        <v>A</v>
+      </c>
+      <c r="R30" t="str">
+        <v>C</v>
+      </c>
+      <c r="S30" t="str">
+        <v>A</v>
+      </c>
+      <c r="T30" t="str">
+        <v>B</v>
+      </c>
+      <c r="U30" t="str">
+        <v/>
+      </c>
+      <c r="V30" t="str">
+        <v/>
+      </c>
+      <c r="W30" t="str">
+        <v/>
+      </c>
+      <c r="X30" t="str">
+        <v>B</v>
+      </c>
+      <c r="Y30" t="str">
+        <v>A</v>
+      </c>
+      <c r="Z30">
+        <v>0</v>
+      </c>
+      <c r="AA30">
+        <v>8</v>
+      </c>
+      <c r="AB30" t="str">
+        <v>AFH</v>
+      </c>
+      <c r="AC30" t="str">
+        <v/>
+      </c>
+      <c r="AD30" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31">
+        <v>31</v>
+      </c>
+      <c r="B31" t="str">
+        <v>重庆市</v>
+      </c>
+      <c r="C31" t="str">
+        <v>重庆市</v>
+      </c>
+      <c r="D31" t="str">
+        <v>B</v>
+      </c>
+      <c r="E31" t="str">
+        <v>A</v>
+      </c>
+      <c r="F31" t="str">
+        <v>C</v>
+      </c>
+      <c r="G31" t="str">
+        <v>B</v>
+      </c>
+      <c r="H31" t="str">
+        <v>B</v>
+      </c>
+      <c r="I31" t="str">
+        <v>B</v>
+      </c>
+      <c r="J31" t="str">
+        <v>D</v>
+      </c>
+      <c r="K31" t="str">
+        <v>C</v>
+      </c>
+      <c r="L31" t="str">
+        <v>A</v>
+      </c>
+      <c r="M31" t="str">
+        <v>D</v>
+      </c>
+      <c r="N31" t="str">
+        <v>B</v>
+      </c>
+      <c r="O31" t="str">
+        <v>A</v>
+      </c>
+      <c r="P31" t="str">
+        <v>A</v>
+      </c>
+      <c r="Q31" t="str">
+        <v>B</v>
+      </c>
+      <c r="R31" t="str">
+        <v>B</v>
+      </c>
+      <c r="S31" t="str">
+        <v>C</v>
+      </c>
+      <c r="T31" t="str">
+        <v>A</v>
+      </c>
+      <c r="U31" t="str">
+        <v>A</v>
+      </c>
+      <c r="V31" t="str">
+        <v>D</v>
+      </c>
+      <c r="W31" t="str">
+        <v/>
+      </c>
+      <c r="X31" t="str">
+        <v>C</v>
+      </c>
+      <c r="Y31" t="str">
+        <v>A</v>
+      </c>
+      <c r="Z31">
+        <v>2</v>
+      </c>
+      <c r="AA31">
+        <v>0</v>
+      </c>
+      <c r="AB31" t="str">
+        <v>AFH</v>
+      </c>
+      <c r="AC31" t="str">
+        <v/>
+      </c>
+      <c r="AD31" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32">
+        <v>32</v>
+      </c>
+      <c r="B32" t="str">
+        <v>重庆市</v>
+      </c>
+      <c r="C32" t="str">
+        <v>重庆市</v>
+      </c>
+      <c r="D32" t="str">
+        <v>B</v>
+      </c>
+      <c r="E32" t="str">
+        <v>A</v>
+      </c>
+      <c r="F32" t="str">
+        <v>A</v>
+      </c>
+      <c r="G32" t="str">
+        <v>C</v>
+      </c>
+      <c r="H32" t="str">
+        <v>A</v>
+      </c>
+      <c r="I32" t="str">
+        <v>B</v>
+      </c>
+      <c r="J32" t="str">
+        <v>C</v>
+      </c>
+      <c r="K32" t="str">
+        <v>C</v>
+      </c>
+      <c r="L32" t="str">
+        <v>B</v>
+      </c>
+      <c r="M32" t="str">
+        <v>D</v>
+      </c>
+      <c r="N32" t="str">
+        <v>B</v>
+      </c>
+      <c r="O32" t="str">
+        <v>A</v>
+      </c>
+      <c r="P32" t="str">
+        <v>A</v>
+      </c>
+      <c r="Q32" t="str">
+        <v>B</v>
+      </c>
+      <c r="R32" t="str">
+        <v>C</v>
+      </c>
+      <c r="S32" t="str">
+        <v>C</v>
+      </c>
+      <c r="T32" t="str">
+        <v>B</v>
+      </c>
+      <c r="U32" t="str">
+        <v/>
+      </c>
+      <c r="V32" t="str">
+        <v/>
+      </c>
+      <c r="W32" t="str">
+        <v/>
+      </c>
+      <c r="X32" t="str">
+        <v>A</v>
+      </c>
+      <c r="Y32" t="str">
+        <v>A</v>
+      </c>
+      <c r="Z32">
+        <v>7</v>
+      </c>
+      <c r="AA32">
+        <v>2</v>
+      </c>
+      <c r="AB32" t="str">
+        <v>E</v>
+      </c>
+      <c r="AC32" t="str">
+        <v/>
+      </c>
+      <c r="AD32" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33">
+        <v>33</v>
+      </c>
+      <c r="B33" t="str">
+        <v>重庆市</v>
+      </c>
+      <c r="C33" t="str">
+        <v>重庆市</v>
+      </c>
+      <c r="D33" t="str">
+        <v>B</v>
+      </c>
+      <c r="E33" t="str">
+        <v>A</v>
+      </c>
+      <c r="F33" t="str">
+        <v>C</v>
+      </c>
+      <c r="G33" t="str">
+        <v>C</v>
+      </c>
+      <c r="H33" t="str">
+        <v>C</v>
+      </c>
+      <c r="I33" t="str">
+        <v>B</v>
+      </c>
+      <c r="J33" t="str">
+        <v>B</v>
+      </c>
+      <c r="K33" t="str">
+        <v>D</v>
+      </c>
+      <c r="L33" t="str">
+        <v>A</v>
+      </c>
+      <c r="M33" t="str">
+        <v>C</v>
+      </c>
+      <c r="N33" t="str">
+        <v>A</v>
+      </c>
+      <c r="O33" t="str">
+        <v>B</v>
+      </c>
+      <c r="P33" t="str">
+        <v>C</v>
+      </c>
+      <c r="Q33" t="str">
+        <v>A</v>
+      </c>
+      <c r="R33" t="str">
+        <v>B</v>
+      </c>
+      <c r="S33" t="str">
+        <v>C</v>
+      </c>
+      <c r="T33" t="str">
+        <v>A</v>
+      </c>
+      <c r="U33" t="str">
+        <v>D</v>
+      </c>
+      <c r="V33" t="str">
+        <v>A</v>
+      </c>
+      <c r="W33" t="str">
+        <v/>
+      </c>
+      <c r="X33" t="str">
+        <v>A</v>
+      </c>
+      <c r="Y33" t="str">
+        <v>B</v>
+      </c>
+      <c r="Z33">
+        <v>8</v>
+      </c>
+      <c r="AA33">
+        <v>2</v>
+      </c>
+      <c r="AB33" t="str">
+        <v>ACDF</v>
+      </c>
+      <c r="AC33" t="str">
+        <v/>
+      </c>
+      <c r="AD33" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34">
+        <v>34</v>
+      </c>
+      <c r="B34" t="str">
+        <v>重庆市</v>
+      </c>
+      <c r="C34" t="str">
+        <v>重庆市</v>
+      </c>
+      <c r="D34" t="str">
+        <v>B</v>
+      </c>
+      <c r="E34" t="str">
+        <v>A</v>
+      </c>
+      <c r="F34" t="str">
+        <v>D</v>
+      </c>
+      <c r="G34" t="str">
+        <v>B</v>
+      </c>
+      <c r="H34" t="str">
+        <v>A</v>
+      </c>
+      <c r="I34" t="str">
+        <v>C</v>
+      </c>
+      <c r="J34" t="str">
+        <v>B</v>
+      </c>
+      <c r="K34" t="str">
+        <v>C</v>
+      </c>
+      <c r="L34" t="str">
+        <v>B</v>
+      </c>
+      <c r="M34" t="str">
+        <v>A</v>
+      </c>
+      <c r="N34" t="str">
+        <v>B</v>
+      </c>
+      <c r="O34" t="str">
+        <v>B</v>
+      </c>
+      <c r="P34" t="str">
+        <v>B</v>
+      </c>
+      <c r="Q34" t="str">
+        <v>C</v>
+      </c>
+      <c r="R34" t="str">
+        <v>A</v>
+      </c>
+      <c r="S34" t="str">
+        <v>D</v>
+      </c>
+      <c r="T34" t="str">
+        <v>B</v>
+      </c>
+      <c r="U34" t="str">
+        <v/>
+      </c>
+      <c r="V34" t="str">
+        <v/>
+      </c>
+      <c r="W34" t="str">
+        <v/>
+      </c>
+      <c r="X34" t="str">
+        <v>B</v>
+      </c>
+      <c r="Y34" t="str">
+        <v>B</v>
+      </c>
+      <c r="Z34">
+        <v>0</v>
+      </c>
+      <c r="AA34">
+        <v>4</v>
+      </c>
+      <c r="AB34" t="str">
+        <v>ADFG</v>
+      </c>
+      <c r="AC34" t="str">
+        <v/>
+      </c>
+      <c r="AD34" t="str">
+        <v/>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:AC5"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:AD34"/>
   </ignoredErrors>
 </worksheet>
 </file>